--- a/Data/CoyoteSightings.xlsx
+++ b/Data/CoyoteSightings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bbecker\Projects\IandM\harborSeals\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE8EB39-8A58-45BF-A5E3-C32E35F202C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8706C3F-7926-4223-A092-15287F418FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{3A5B4880-445D-492C-AB9A-F1C8CCD87F42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A5B4880-445D-492C-AB9A-F1C8CCD87F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="119">
   <si>
     <t>StartDate</t>
   </si>
@@ -359,9 +359,6 @@
   </si>
   <si>
     <t>TB</t>
-  </si>
-  <si>
-    <t>*Number of total PRH surveys might be incorrect</t>
   </si>
   <si>
     <t>Data search included all disturbance records between March 1 - July 31 with coyote listed as source or specific source, disturbance records with coyote in the comments, and count surveys with coyote in the comments</t>
@@ -518,18 +515,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,23 +535,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,37 +560,34 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -617,9 +611,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -657,7 +651,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -763,7 +757,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -905,7 +899,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -913,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448A4610-C5DB-4A57-B1A9-AB82179C23D6}">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +922,7 @@
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -942,10 +936,10 @@
         <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -958,15 +952,12 @@
       <c r="D2">
         <v>14</v>
       </c>
-      <c r="E2" s="31">
-        <f>C2/D2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="28">
+        <f t="shared" ref="E2:E33" si="0">C2/D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -979,12 +970,12 @@
       <c r="D3">
         <v>39</v>
       </c>
-      <c r="E3" s="31">
-        <f>C3/D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -997,12 +988,12 @@
       <c r="D4">
         <v>40</v>
       </c>
-      <c r="E4" s="31">
-        <f>C4/D4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -1015,12 +1006,12 @@
       <c r="D5">
         <v>42</v>
       </c>
-      <c r="E5" s="31">
-        <f>C5/D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -1033,12 +1024,12 @@
       <c r="D6">
         <v>38</v>
       </c>
-      <c r="E6" s="31">
-        <f>C6/D6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -1051,12 +1042,12 @@
       <c r="D7">
         <v>45</v>
       </c>
-      <c r="E7" s="31">
-        <f>C7/D7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -1069,12 +1060,12 @@
       <c r="D8">
         <v>29</v>
       </c>
-      <c r="E8" s="31">
-        <f>C8/D8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -1087,12 +1078,12 @@
       <c r="D9">
         <v>40</v>
       </c>
-      <c r="E9" s="31">
-        <f>C9/D9</f>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -1105,12 +1096,12 @@
       <c r="D10">
         <v>36</v>
       </c>
-      <c r="E10" s="31">
-        <f>C10/D10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -1123,12 +1114,12 @@
       <c r="D11">
         <v>40</v>
       </c>
-      <c r="E11" s="31">
-        <f>C11/D11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -1141,12 +1132,12 @@
       <c r="D12">
         <v>36</v>
       </c>
-      <c r="E12" s="31">
-        <f>C12/D12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -1159,12 +1150,12 @@
       <c r="D13">
         <v>38</v>
       </c>
-      <c r="E13" s="31">
-        <f>C13/D13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -1177,12 +1168,12 @@
       <c r="D14">
         <v>37</v>
       </c>
-      <c r="E14" s="31">
-        <f>C14/D14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -1195,12 +1186,12 @@
       <c r="D15">
         <v>32</v>
       </c>
-      <c r="E15" s="31">
-        <f>C15/D15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -1213,8 +1204,8 @@
       <c r="D16">
         <v>34</v>
       </c>
-      <c r="E16" s="31">
-        <f>C16/D16</f>
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1231,8 +1222,8 @@
       <c r="D17">
         <v>36</v>
       </c>
-      <c r="E17" s="31">
-        <f>C17/D17</f>
+      <c r="E17" s="28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1249,8 +1240,8 @@
       <c r="D18">
         <v>39</v>
       </c>
-      <c r="E18" s="31">
-        <f>C18/D18</f>
+      <c r="E18" s="28">
+        <f t="shared" si="0"/>
         <v>2.564102564102564E-2</v>
       </c>
     </row>
@@ -1267,8 +1258,8 @@
       <c r="D19">
         <v>33</v>
       </c>
-      <c r="E19" s="31">
-        <f>C19/D19</f>
+      <c r="E19" s="28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1285,8 +1276,8 @@
       <c r="D20">
         <v>39</v>
       </c>
-      <c r="E20" s="31">
-        <f>C20/D20</f>
+      <c r="E20" s="28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1303,8 +1294,8 @@
       <c r="D21">
         <v>30</v>
       </c>
-      <c r="E21" s="31">
-        <f>C21/D21</f>
+      <c r="E21" s="28">
+        <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
@@ -1321,8 +1312,8 @@
       <c r="D22">
         <v>6</v>
       </c>
-      <c r="E22" s="31">
-        <f>C22/D22</f>
+      <c r="E22" s="28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1339,8 +1330,8 @@
       <c r="D23">
         <v>24</v>
       </c>
-      <c r="E23" s="31">
-        <f>C23/D23</f>
+      <c r="E23" s="28">
+        <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -1357,8 +1348,8 @@
       <c r="D24">
         <v>35</v>
       </c>
-      <c r="E24" s="31">
-        <f>C24/D24</f>
+      <c r="E24" s="28">
+        <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
@@ -1375,8 +1366,8 @@
       <c r="D25">
         <v>38</v>
       </c>
-      <c r="E25" s="31">
-        <f>C25/D25</f>
+      <c r="E25" s="28">
+        <f t="shared" si="0"/>
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
@@ -1393,8 +1384,8 @@
       <c r="D26">
         <v>44</v>
       </c>
-      <c r="E26" s="31">
-        <f>C26/D26</f>
+      <c r="E26" s="28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1411,8 +1402,8 @@
       <c r="D27">
         <v>43</v>
       </c>
-      <c r="E27" s="31">
-        <f>C27/D27</f>
+      <c r="E27" s="28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1429,8 +1420,8 @@
       <c r="D28">
         <v>39</v>
       </c>
-      <c r="E28" s="31">
-        <f>C28/D28</f>
+      <c r="E28" s="28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1447,8 +1438,8 @@
       <c r="D29">
         <v>46</v>
       </c>
-      <c r="E29" s="31">
-        <f>C29/D29</f>
+      <c r="E29" s="28">
+        <f t="shared" si="0"/>
         <v>2.1739130434782608E-2</v>
       </c>
     </row>
@@ -1465,8 +1456,8 @@
       <c r="D30">
         <v>51</v>
       </c>
-      <c r="E30" s="31">
-        <f>C30/D30</f>
+      <c r="E30" s="28">
+        <f t="shared" si="0"/>
         <v>9.8039215686274508E-2</v>
       </c>
     </row>
@@ -1483,8 +1474,8 @@
       <c r="D31">
         <v>37</v>
       </c>
-      <c r="E31" s="31">
-        <f>C31/D31</f>
+      <c r="E31" s="28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1501,8 +1492,8 @@
       <c r="D32">
         <v>33</v>
       </c>
-      <c r="E32" s="31">
-        <f>C32/D32</f>
+      <c r="E32" s="28">
+        <f t="shared" si="0"/>
         <v>3.0303030303030304E-2</v>
       </c>
     </row>
@@ -1519,8 +1510,8 @@
       <c r="D33">
         <v>60</v>
       </c>
-      <c r="E33" s="31">
-        <f>C33/D33</f>
+      <c r="E33" s="28">
+        <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
@@ -1537,8 +1528,8 @@
       <c r="D34">
         <v>41</v>
       </c>
-      <c r="E34" s="31">
-        <f>C34/D34</f>
+      <c r="E34" s="28">
+        <f t="shared" ref="E34:E65" si="1">C34/D34</f>
         <v>0</v>
       </c>
     </row>
@@ -1555,8 +1546,8 @@
       <c r="D35">
         <v>41</v>
       </c>
-      <c r="E35" s="31">
-        <f>C35/D35</f>
+      <c r="E35" s="28">
+        <f t="shared" si="1"/>
         <v>2.4390243902439025E-2</v>
       </c>
     </row>
@@ -1573,8 +1564,8 @@
       <c r="D36">
         <v>39</v>
       </c>
-      <c r="E36" s="31">
-        <f>C36/D36</f>
+      <c r="E36" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1591,8 +1582,8 @@
       <c r="D37">
         <v>40</v>
       </c>
-      <c r="E37" s="31">
-        <f>C37/D37</f>
+      <c r="E37" s="28">
+        <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1609,8 +1600,8 @@
       <c r="D38">
         <v>33</v>
       </c>
-      <c r="E38" s="31">
-        <f>C38/D38</f>
+      <c r="E38" s="28">
+        <f t="shared" si="1"/>
         <v>3.0303030303030304E-2</v>
       </c>
     </row>
@@ -1627,8 +1618,8 @@
       <c r="D39">
         <v>35</v>
       </c>
-      <c r="E39" s="31">
-        <f>C39/D39</f>
+      <c r="E39" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1645,8 +1636,8 @@
       <c r="D40">
         <v>39</v>
       </c>
-      <c r="E40" s="31">
-        <f>C40/D40</f>
+      <c r="E40" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1663,8 +1654,8 @@
       <c r="D41">
         <v>36</v>
       </c>
-      <c r="E41" s="31">
-        <f>C41/D41</f>
+      <c r="E41" s="28">
+        <f t="shared" si="1"/>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
@@ -1681,8 +1672,8 @@
       <c r="D42">
         <v>27</v>
       </c>
-      <c r="E42" s="31">
-        <f>C42/D42</f>
+      <c r="E42" s="28">
+        <f t="shared" si="1"/>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
@@ -1699,8 +1690,8 @@
       <c r="D43">
         <v>35</v>
       </c>
-      <c r="E43" s="31">
-        <f>C43/D43</f>
+      <c r="E43" s="28">
+        <f t="shared" si="1"/>
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
@@ -1717,8 +1708,8 @@
       <c r="D44">
         <v>39</v>
       </c>
-      <c r="E44" s="31">
-        <f>C44/D44</f>
+      <c r="E44" s="28">
+        <f t="shared" si="1"/>
         <v>2.564102564102564E-2</v>
       </c>
     </row>
@@ -1735,8 +1726,8 @@
       <c r="D45">
         <v>23</v>
       </c>
-      <c r="E45" s="31">
-        <f>C45/D45</f>
+      <c r="E45" s="28">
+        <f t="shared" si="1"/>
         <v>0.13043478260869565</v>
       </c>
     </row>
@@ -1753,8 +1744,8 @@
       <c r="D46">
         <v>4</v>
       </c>
-      <c r="E46" s="31">
-        <f>C46/D46</f>
+      <c r="E46" s="28">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1771,8 +1762,8 @@
       <c r="D47">
         <v>26</v>
       </c>
-      <c r="E47" s="31">
-        <f>C47/D47</f>
+      <c r="E47" s="28">
+        <f t="shared" si="1"/>
         <v>0.38461538461538464</v>
       </c>
     </row>
@@ -1789,8 +1780,8 @@
       <c r="D48">
         <v>19</v>
       </c>
-      <c r="E48" s="31">
-        <f>C48/D48</f>
+      <c r="E48" s="28">
+        <f t="shared" si="1"/>
         <v>0.21052631578947367</v>
       </c>
     </row>
@@ -1807,8 +1798,8 @@
       <c r="D49">
         <v>23</v>
       </c>
-      <c r="E49" s="31">
-        <f>C49/D49</f>
+      <c r="E49" s="28">
+        <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
@@ -1825,8 +1816,8 @@
       <c r="D50">
         <v>51</v>
       </c>
-      <c r="E50" s="31">
-        <f>C50/D50</f>
+      <c r="E50" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1843,8 +1834,8 @@
       <c r="D51">
         <v>39</v>
       </c>
-      <c r="E51" s="31">
-        <f>C51/D51</f>
+      <c r="E51" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1861,8 +1852,8 @@
       <c r="D52">
         <v>39</v>
       </c>
-      <c r="E52" s="31">
-        <f>C52/D52</f>
+      <c r="E52" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1879,8 +1870,8 @@
       <c r="D53">
         <v>38</v>
       </c>
-      <c r="E53" s="31">
-        <f>C53/D53</f>
+      <c r="E53" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1897,8 +1888,8 @@
       <c r="D54">
         <v>34</v>
       </c>
-      <c r="E54" s="31">
-        <f>C54/D54</f>
+      <c r="E54" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1915,8 +1906,8 @@
       <c r="D55">
         <v>32</v>
       </c>
-      <c r="E55" s="31">
-        <f>C55/D55</f>
+      <c r="E55" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1933,8 +1924,8 @@
       <c r="D56">
         <v>31</v>
       </c>
-      <c r="E56" s="31">
-        <f>C56/D56</f>
+      <c r="E56" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1951,8 +1942,8 @@
       <c r="D57">
         <v>37</v>
       </c>
-      <c r="E57" s="31">
-        <f>C57/D57</f>
+      <c r="E57" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1969,8 +1960,8 @@
       <c r="D58">
         <v>39</v>
       </c>
-      <c r="E58" s="31">
-        <f>C58/D58</f>
+      <c r="E58" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1987,8 +1978,8 @@
       <c r="D59">
         <v>37</v>
       </c>
-      <c r="E59" s="31">
-        <f>C59/D59</f>
+      <c r="E59" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2005,8 +1996,8 @@
       <c r="D60">
         <v>27</v>
       </c>
-      <c r="E60" s="31">
-        <f>C60/D60</f>
+      <c r="E60" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2023,8 +2014,8 @@
       <c r="D61">
         <v>31</v>
       </c>
-      <c r="E61" s="31">
-        <f>C61/D61</f>
+      <c r="E61" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2041,8 +2032,8 @@
       <c r="D62">
         <v>30</v>
       </c>
-      <c r="E62" s="31">
-        <f>C62/D62</f>
+      <c r="E62" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2059,8 +2050,8 @@
       <c r="D63">
         <v>43</v>
       </c>
-      <c r="E63" s="31">
-        <f>C63/D63</f>
+      <c r="E63" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2077,8 +2068,8 @@
       <c r="D64">
         <v>37</v>
       </c>
-      <c r="E64" s="31">
-        <f>C64/D64</f>
+      <c r="E64" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2095,8 +2086,8 @@
       <c r="D65">
         <v>32</v>
       </c>
-      <c r="E65" s="31">
-        <f>C65/D65</f>
+      <c r="E65" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2113,8 +2104,8 @@
       <c r="D66">
         <v>40</v>
       </c>
-      <c r="E66" s="31">
-        <f>C66/D66</f>
+      <c r="E66" s="28">
+        <f t="shared" ref="E66:E97" si="2">C66/D66</f>
         <v>0.1</v>
       </c>
     </row>
@@ -2131,8 +2122,8 @@
       <c r="D67">
         <v>4</v>
       </c>
-      <c r="E67" s="31">
-        <f>C67/D67</f>
+      <c r="E67" s="28">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2149,8 +2140,8 @@
       <c r="D68">
         <v>5</v>
       </c>
-      <c r="E68" s="31">
-        <f>C68/D68</f>
+      <c r="E68" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2167,8 +2158,8 @@
       <c r="D69">
         <v>5</v>
       </c>
-      <c r="E69" s="31">
-        <f>C69/D69</f>
+      <c r="E69" s="28">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
@@ -2185,8 +2176,8 @@
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="E70" s="31" t="e">
-        <f>C70/D70</f>
+      <c r="E70" s="28" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2203,8 +2194,8 @@
       <c r="D71">
         <v>12</v>
       </c>
-      <c r="E71" s="31">
-        <f>C71/D71</f>
+      <c r="E71" s="28">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2221,8 +2212,8 @@
       <c r="D72">
         <v>13</v>
       </c>
-      <c r="E72" s="31">
-        <f>C72/D72</f>
+      <c r="E72" s="28">
+        <f t="shared" si="2"/>
         <v>0.23076923076923078</v>
       </c>
     </row>
@@ -2239,8 +2230,8 @@
       <c r="D73">
         <v>12</v>
       </c>
-      <c r="E73" s="31">
-        <f>C73/D73</f>
+      <c r="E73" s="28">
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -2257,8 +2248,8 @@
       <c r="D74">
         <v>11</v>
       </c>
-      <c r="E74" s="31">
-        <f>C74/D74</f>
+      <c r="E74" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2275,8 +2266,8 @@
       <c r="D75">
         <v>32</v>
       </c>
-      <c r="E75" s="31">
-        <f>C75/D75</f>
+      <c r="E75" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2293,8 +2284,8 @@
       <c r="D76">
         <v>39</v>
       </c>
-      <c r="E76" s="31">
-        <f>C76/D76</f>
+      <c r="E76" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2311,8 +2302,8 @@
       <c r="D77">
         <v>40</v>
       </c>
-      <c r="E77" s="31">
-        <f>C77/D77</f>
+      <c r="E77" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2329,8 +2320,8 @@
       <c r="D78">
         <v>33</v>
       </c>
-      <c r="E78" s="31">
-        <f>C78/D78</f>
+      <c r="E78" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2347,8 +2338,8 @@
       <c r="D79">
         <v>43</v>
       </c>
-      <c r="E79" s="31">
-        <f>C79/D79</f>
+      <c r="E79" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2365,8 +2356,8 @@
       <c r="D80">
         <v>25</v>
       </c>
-      <c r="E80" s="31">
-        <f>C80/D80</f>
+      <c r="E80" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2383,8 +2374,8 @@
       <c r="D81">
         <v>40</v>
       </c>
-      <c r="E81" s="31">
-        <f>C81/D81</f>
+      <c r="E81" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2401,8 +2392,8 @@
       <c r="D82">
         <v>36</v>
       </c>
-      <c r="E82" s="31">
-        <f>C82/D82</f>
+      <c r="E82" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2419,8 +2410,8 @@
       <c r="D83">
         <v>39</v>
       </c>
-      <c r="E83" s="31">
-        <f>C83/D83</f>
+      <c r="E83" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2437,8 +2428,8 @@
       <c r="D84">
         <v>36</v>
       </c>
-      <c r="E84" s="31">
-        <f>C84/D84</f>
+      <c r="E84" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2455,8 +2446,8 @@
       <c r="D85">
         <v>38</v>
       </c>
-      <c r="E85" s="31">
-        <f>C85/D85</f>
+      <c r="E85" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2473,8 +2464,8 @@
       <c r="D86">
         <v>36</v>
       </c>
-      <c r="E86" s="31">
-        <f>C86/D86</f>
+      <c r="E86" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2491,8 +2482,8 @@
       <c r="D87">
         <v>31</v>
       </c>
-      <c r="E87" s="31">
-        <f>C87/D87</f>
+      <c r="E87" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2509,8 +2500,8 @@
       <c r="D88">
         <v>33</v>
       </c>
-      <c r="E88" s="31">
-        <f>C88/D88</f>
+      <c r="E88" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2527,8 +2518,8 @@
       <c r="D89">
         <v>35</v>
       </c>
-      <c r="E89" s="31">
-        <f>C89/D89</f>
+      <c r="E89" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2545,8 +2536,8 @@
       <c r="D90">
         <v>37</v>
       </c>
-      <c r="E90" s="31">
-        <f>C90/D90</f>
+      <c r="E90" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2563,8 +2554,8 @@
       <c r="D91">
         <v>33</v>
       </c>
-      <c r="E91" s="31">
-        <f>C91/D91</f>
+      <c r="E91" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2581,8 +2572,8 @@
       <c r="D92">
         <v>39</v>
       </c>
-      <c r="E92" s="31">
-        <f>C92/D92</f>
+      <c r="E92" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2599,8 +2590,8 @@
       <c r="D93">
         <v>30</v>
       </c>
-      <c r="E93" s="31">
-        <f>C93/D93</f>
+      <c r="E93" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2617,8 +2608,8 @@
       <c r="D94">
         <v>2</v>
       </c>
-      <c r="E94" s="31">
-        <f>C94/D94</f>
+      <c r="E94" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2635,8 +2626,8 @@
       <c r="D95">
         <v>23</v>
       </c>
-      <c r="E95" s="31">
-        <f>C95/D95</f>
+      <c r="E95" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2653,8 +2644,8 @@
       <c r="D96">
         <v>34</v>
       </c>
-      <c r="E96" s="31">
-        <f>C96/D96</f>
+      <c r="E96" s="28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2671,8 +2662,8 @@
       <c r="D97">
         <v>36</v>
       </c>
-      <c r="E97" s="31">
-        <f>C97/D97</f>
+      <c r="E97" s="28">
+        <f t="shared" si="2"/>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
@@ -2689,8 +2680,8 @@
       <c r="D98">
         <v>8</v>
       </c>
-      <c r="E98" s="31">
-        <f>C98/D98</f>
+      <c r="E98" s="28">
+        <f t="shared" ref="E98:E129" si="3">C98/D98</f>
         <v>0</v>
       </c>
     </row>
@@ -2707,8 +2698,8 @@
       <c r="D99">
         <v>34</v>
       </c>
-      <c r="E99" s="31">
-        <f>C99/D99</f>
+      <c r="E99" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2725,8 +2716,8 @@
       <c r="D100">
         <v>16</v>
       </c>
-      <c r="E100" s="31">
-        <f>C100/D100</f>
+      <c r="E100" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2743,8 +2734,8 @@
       <c r="D101">
         <v>38</v>
       </c>
-      <c r="E101" s="31">
-        <f>C101/D101</f>
+      <c r="E101" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2761,8 +2752,8 @@
       <c r="D102">
         <v>18</v>
       </c>
-      <c r="E102" s="31">
-        <f>C102/D102</f>
+      <c r="E102" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2779,8 +2770,8 @@
       <c r="D103">
         <v>29</v>
       </c>
-      <c r="E103" s="31">
-        <f>C103/D103</f>
+      <c r="E103" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2797,8 +2788,8 @@
       <c r="D104">
         <v>45</v>
       </c>
-      <c r="E104" s="31">
-        <f>C104/D104</f>
+      <c r="E104" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2815,8 +2806,8 @@
       <c r="D105">
         <v>49</v>
       </c>
-      <c r="E105" s="31">
-        <f>C105/D105</f>
+      <c r="E105" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2833,8 +2824,8 @@
       <c r="D106">
         <v>27</v>
       </c>
-      <c r="E106" s="31">
-        <f>C106/D106</f>
+      <c r="E106" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2851,8 +2842,8 @@
       <c r="D107">
         <v>37</v>
       </c>
-      <c r="E107" s="31">
-        <f>C107/D107</f>
+      <c r="E107" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2869,8 +2860,8 @@
       <c r="D108">
         <v>35</v>
       </c>
-      <c r="E108" s="31">
-        <f>C108/D108</f>
+      <c r="E108" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2887,8 +2878,8 @@
       <c r="D109">
         <v>33</v>
       </c>
-      <c r="E109" s="31">
-        <f>C109/D109</f>
+      <c r="E109" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2905,8 +2896,8 @@
       <c r="D110">
         <v>30</v>
       </c>
-      <c r="E110" s="31">
-        <f>C110/D110</f>
+      <c r="E110" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2923,8 +2914,8 @@
       <c r="D111">
         <v>37</v>
       </c>
-      <c r="E111" s="31">
-        <f>C111/D111</f>
+      <c r="E111" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2941,8 +2932,8 @@
       <c r="D112">
         <v>35</v>
       </c>
-      <c r="E112" s="31">
-        <f>C112/D112</f>
+      <c r="E112" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2959,8 +2950,8 @@
       <c r="D113">
         <v>34</v>
       </c>
-      <c r="E113" s="31">
-        <f>C113/D113</f>
+      <c r="E113" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2977,8 +2968,8 @@
       <c r="D114">
         <v>38</v>
       </c>
-      <c r="E114" s="31">
-        <f>C114/D114</f>
+      <c r="E114" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2995,8 +2986,8 @@
       <c r="D115">
         <v>37</v>
       </c>
-      <c r="E115" s="31">
-        <f>C115/D115</f>
+      <c r="E115" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3013,8 +3004,8 @@
       <c r="D116">
         <v>46</v>
       </c>
-      <c r="E116" s="31">
-        <f>C116/D116</f>
+      <c r="E116" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3031,8 +3022,8 @@
       <c r="D117">
         <v>34</v>
       </c>
-      <c r="E117" s="31">
-        <f>C117/D117</f>
+      <c r="E117" s="28">
+        <f t="shared" si="3"/>
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
@@ -3049,8 +3040,8 @@
       <c r="D118">
         <v>2</v>
       </c>
-      <c r="E118" s="31">
-        <f>C118/D118</f>
+      <c r="E118" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3067,8 +3058,8 @@
       <c r="D119">
         <v>27</v>
       </c>
-      <c r="E119" s="31">
-        <f>C119/D119</f>
+      <c r="E119" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3085,8 +3076,8 @@
       <c r="D120">
         <v>32</v>
       </c>
-      <c r="E120" s="31">
-        <f>C120/D120</f>
+      <c r="E120" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3103,8 +3094,8 @@
       <c r="D121">
         <v>41</v>
       </c>
-      <c r="E121" s="31">
-        <f>C121/D121</f>
+      <c r="E121" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3121,8 +3112,8 @@
       <c r="D122">
         <v>15</v>
       </c>
-      <c r="E122" s="31">
-        <f>C122/D122</f>
+      <c r="E122" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3139,8 +3130,8 @@
       <c r="D123">
         <v>14</v>
       </c>
-      <c r="E123" s="31">
-        <f>C123/D123</f>
+      <c r="E123" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3157,8 +3148,8 @@
       <c r="D124">
         <v>9</v>
       </c>
-      <c r="E124" s="31">
-        <f>C124/D124</f>
+      <c r="E124" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3175,8 +3166,8 @@
       <c r="D125">
         <v>9</v>
       </c>
-      <c r="E125" s="31">
-        <f>C125/D125</f>
+      <c r="E125" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3193,8 +3184,8 @@
       <c r="D126">
         <v>10</v>
       </c>
-      <c r="E126" s="31">
-        <f>C126/D126</f>
+      <c r="E126" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3211,8 +3202,8 @@
       <c r="D127">
         <v>8</v>
       </c>
-      <c r="E127" s="31">
-        <f>C127/D127</f>
+      <c r="E127" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3229,8 +3220,8 @@
       <c r="D128">
         <v>17</v>
       </c>
-      <c r="E128" s="31">
-        <f>C128/D128</f>
+      <c r="E128" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3247,8 +3238,8 @@
       <c r="D129">
         <v>16</v>
       </c>
-      <c r="E129" s="31">
-        <f>C129/D129</f>
+      <c r="E129" s="28">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3265,8 +3256,8 @@
       <c r="D130">
         <v>7</v>
       </c>
-      <c r="E130" s="31">
-        <f>C130/D130</f>
+      <c r="E130" s="28">
+        <f t="shared" ref="E130:E161" si="4">C130/D130</f>
         <v>0</v>
       </c>
     </row>
@@ -3283,8 +3274,8 @@
       <c r="D131">
         <v>9</v>
       </c>
-      <c r="E131" s="31">
-        <f>C131/D131</f>
+      <c r="E131" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3301,8 +3292,8 @@
       <c r="D132">
         <v>8</v>
       </c>
-      <c r="E132" s="31">
-        <f>C132/D132</f>
+      <c r="E132" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3319,8 +3310,8 @@
       <c r="D133">
         <v>13</v>
       </c>
-      <c r="E133" s="31">
-        <f>C133/D133</f>
+      <c r="E133" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3337,8 +3328,8 @@
       <c r="D134">
         <v>10</v>
       </c>
-      <c r="E134" s="31">
-        <f>C134/D134</f>
+      <c r="E134" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3355,8 +3346,8 @@
       <c r="D135">
         <v>11</v>
       </c>
-      <c r="E135" s="31">
-        <f>C135/D135</f>
+      <c r="E135" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3373,8 +3364,8 @@
       <c r="D136">
         <v>12</v>
       </c>
-      <c r="E136" s="31">
-        <f>C136/D136</f>
+      <c r="E136" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3391,8 +3382,8 @@
       <c r="D137">
         <v>12</v>
       </c>
-      <c r="E137" s="31">
-        <f>C137/D137</f>
+      <c r="E137" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3409,8 +3400,8 @@
       <c r="D138">
         <v>12</v>
       </c>
-      <c r="E138" s="31">
-        <f>C138/D138</f>
+      <c r="E138" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3427,8 +3418,8 @@
       <c r="D139">
         <v>12</v>
       </c>
-      <c r="E139" s="31">
-        <f>C139/D139</f>
+      <c r="E139" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3445,8 +3436,8 @@
       <c r="D140">
         <v>11</v>
       </c>
-      <c r="E140" s="31">
-        <f>C140/D140</f>
+      <c r="E140" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3463,8 +3454,8 @@
       <c r="D141">
         <v>10</v>
       </c>
-      <c r="E141" s="31">
-        <f>C141/D141</f>
+      <c r="E141" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3481,8 +3472,8 @@
       <c r="D142">
         <v>2</v>
       </c>
-      <c r="E142" s="31">
-        <f>C142/D142</f>
+      <c r="E142" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3499,8 +3490,8 @@
       <c r="D143">
         <v>11</v>
       </c>
-      <c r="E143" s="31">
-        <f>C143/D143</f>
+      <c r="E143" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3517,8 +3508,8 @@
       <c r="D144">
         <v>10</v>
       </c>
-      <c r="E144" s="31">
-        <f>C144/D144</f>
+      <c r="E144" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3535,8 +3526,8 @@
       <c r="D145">
         <v>11</v>
       </c>
-      <c r="E145" s="31">
-        <f>C145/D145</f>
+      <c r="E145" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3553,8 +3544,8 @@
       <c r="D146">
         <v>25</v>
       </c>
-      <c r="E146" s="31">
-        <f>C146/D146</f>
+      <c r="E146" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3571,8 +3562,8 @@
       <c r="D147">
         <v>34</v>
       </c>
-      <c r="E147" s="31">
-        <f>C147/D147</f>
+      <c r="E147" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3589,8 +3580,8 @@
       <c r="D148">
         <v>32</v>
       </c>
-      <c r="E148" s="31">
-        <f>C148/D148</f>
+      <c r="E148" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3607,8 +3598,8 @@
       <c r="D149">
         <v>34</v>
       </c>
-      <c r="E149" s="31">
-        <f>C149/D149</f>
+      <c r="E149" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3625,8 +3616,8 @@
       <c r="D150">
         <v>22</v>
       </c>
-      <c r="E150" s="31">
-        <f>C150/D150</f>
+      <c r="E150" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3643,8 +3634,8 @@
       <c r="D151">
         <v>28</v>
       </c>
-      <c r="E151" s="31">
-        <f>C151/D151</f>
+      <c r="E151" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3661,8 +3652,8 @@
       <c r="D152">
         <v>22</v>
       </c>
-      <c r="E152" s="31">
-        <f>C152/D152</f>
+      <c r="E152" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3679,8 +3670,8 @@
       <c r="D153">
         <v>36</v>
       </c>
-      <c r="E153" s="31">
-        <f>C153/D153</f>
+      <c r="E153" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3697,8 +3688,8 @@
       <c r="D154">
         <v>33</v>
       </c>
-      <c r="E154" s="31">
-        <f>C154/D154</f>
+      <c r="E154" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3715,8 +3706,8 @@
       <c r="D155">
         <v>30</v>
       </c>
-      <c r="E155" s="31">
-        <f>C155/D155</f>
+      <c r="E155" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3733,8 +3724,8 @@
       <c r="D156">
         <v>31</v>
       </c>
-      <c r="E156" s="31">
-        <f>C156/D156</f>
+      <c r="E156" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3751,8 +3742,8 @@
       <c r="D157">
         <v>33</v>
       </c>
-      <c r="E157" s="31">
-        <f>C157/D157</f>
+      <c r="E157" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3769,8 +3760,8 @@
       <c r="D158">
         <v>39</v>
       </c>
-      <c r="E158" s="31">
-        <f>C158/D158</f>
+      <c r="E158" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3787,8 +3778,8 @@
       <c r="D159">
         <v>37</v>
       </c>
-      <c r="E159" s="31">
-        <f>C159/D159</f>
+      <c r="E159" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3805,8 +3796,8 @@
       <c r="D160">
         <v>30</v>
       </c>
-      <c r="E160" s="31">
-        <f>C160/D160</f>
+      <c r="E160" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3823,8 +3814,8 @@
       <c r="D161">
         <v>32</v>
       </c>
-      <c r="E161" s="31">
-        <f>C161/D161</f>
+      <c r="E161" s="28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3841,8 +3832,8 @@
       <c r="D162">
         <v>38</v>
       </c>
-      <c r="E162" s="31">
-        <f>C162/D162</f>
+      <c r="E162" s="28">
+        <f t="shared" ref="E162:E193" si="5">C162/D162</f>
         <v>0</v>
       </c>
     </row>
@@ -3859,8 +3850,8 @@
       <c r="D163">
         <v>42</v>
       </c>
-      <c r="E163" s="31">
-        <f>C163/D163</f>
+      <c r="E163" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3877,8 +3868,8 @@
       <c r="D164">
         <v>41</v>
       </c>
-      <c r="E164" s="31">
-        <f>C164/D164</f>
+      <c r="E164" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3895,8 +3886,8 @@
       <c r="D165">
         <v>30</v>
       </c>
-      <c r="E165" s="31">
-        <f>C165/D165</f>
+      <c r="E165" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3913,8 +3904,8 @@
       <c r="D166">
         <v>2</v>
       </c>
-      <c r="E166" s="31">
-        <f>C166/D166</f>
+      <c r="E166" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3931,8 +3922,8 @@
       <c r="D167">
         <v>28</v>
       </c>
-      <c r="E167" s="31">
-        <f>C167/D167</f>
+      <c r="E167" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3949,8 +3940,8 @@
       <c r="D168">
         <v>23</v>
       </c>
-      <c r="E168" s="31">
-        <f>C168/D168</f>
+      <c r="E168" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3967,8 +3958,8 @@
       <c r="D169">
         <v>20</v>
       </c>
-      <c r="E169" s="31">
-        <f>C169/D169</f>
+      <c r="E169" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3985,8 +3976,8 @@
       <c r="D170">
         <v>26</v>
       </c>
-      <c r="E170" s="31">
-        <f>C170/D170</f>
+      <c r="E170" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4003,8 +3994,8 @@
       <c r="D171">
         <v>32</v>
       </c>
-      <c r="E171" s="31">
-        <f>C171/D171</f>
+      <c r="E171" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4021,8 +4012,8 @@
       <c r="D172">
         <v>32</v>
       </c>
-      <c r="E172" s="31">
-        <f>C172/D172</f>
+      <c r="E172" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4039,8 +4030,8 @@
       <c r="D173">
         <v>35</v>
       </c>
-      <c r="E173" s="31">
-        <f>C173/D173</f>
+      <c r="E173" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4057,8 +4048,8 @@
       <c r="D174">
         <v>22</v>
       </c>
-      <c r="E174" s="31">
-        <f>C174/D174</f>
+      <c r="E174" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4075,8 +4066,8 @@
       <c r="D175">
         <v>28</v>
       </c>
-      <c r="E175" s="31">
-        <f>C175/D175</f>
+      <c r="E175" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4093,8 +4084,8 @@
       <c r="D176">
         <v>21</v>
       </c>
-      <c r="E176" s="31">
-        <f>C176/D176</f>
+      <c r="E176" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4111,8 +4102,8 @@
       <c r="D177">
         <v>39</v>
       </c>
-      <c r="E177" s="31">
-        <f>C177/D177</f>
+      <c r="E177" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4129,8 +4120,8 @@
       <c r="D178">
         <v>29</v>
       </c>
-      <c r="E178" s="31">
-        <f>C178/D178</f>
+      <c r="E178" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4147,8 +4138,8 @@
       <c r="D179">
         <v>27</v>
       </c>
-      <c r="E179" s="31">
-        <f>C179/D179</f>
+      <c r="E179" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4165,8 +4156,8 @@
       <c r="D180">
         <v>28</v>
       </c>
-      <c r="E180" s="31">
-        <f>C180/D180</f>
+      <c r="E180" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4183,8 +4174,8 @@
       <c r="D181">
         <v>30</v>
       </c>
-      <c r="E181" s="31">
-        <f>C181/D181</f>
+      <c r="E181" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4201,8 +4192,8 @@
       <c r="D182">
         <v>29</v>
       </c>
-      <c r="E182" s="31">
-        <f>C182/D182</f>
+      <c r="E182" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4219,8 +4210,8 @@
       <c r="D183">
         <v>34</v>
       </c>
-      <c r="E183" s="31">
-        <f>C183/D183</f>
+      <c r="E183" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4237,8 +4228,8 @@
       <c r="D184">
         <v>31</v>
       </c>
-      <c r="E184" s="31">
-        <f>C184/D184</f>
+      <c r="E184" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4255,8 +4246,8 @@
       <c r="D185">
         <v>36</v>
       </c>
-      <c r="E185" s="31">
-        <f>C185/D185</f>
+      <c r="E185" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4273,8 +4264,8 @@
       <c r="D186">
         <v>34</v>
       </c>
-      <c r="E186" s="31">
-        <f>C186/D186</f>
+      <c r="E186" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4291,8 +4282,8 @@
       <c r="D187">
         <v>37</v>
       </c>
-      <c r="E187" s="31">
-        <f>C187/D187</f>
+      <c r="E187" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4309,8 +4300,8 @@
       <c r="D188">
         <v>33</v>
       </c>
-      <c r="E188" s="31">
-        <f>C188/D188</f>
+      <c r="E188" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4327,8 +4318,8 @@
       <c r="D189">
         <v>28</v>
       </c>
-      <c r="E189" s="31">
-        <f>C189/D189</f>
+      <c r="E189" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4345,8 +4336,8 @@
       <c r="D190">
         <v>2</v>
       </c>
-      <c r="E190" s="31">
-        <f>C190/D190</f>
+      <c r="E190" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4363,8 +4354,8 @@
       <c r="D191">
         <v>21</v>
       </c>
-      <c r="E191" s="31">
-        <f>C191/D191</f>
+      <c r="E191" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4381,8 +4372,8 @@
       <c r="D192">
         <v>17</v>
       </c>
-      <c r="E192" s="31">
-        <f>C192/D192</f>
+      <c r="E192" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4399,8 +4390,8 @@
       <c r="D193">
         <v>22</v>
       </c>
-      <c r="E193" s="31">
-        <f>C193/D193</f>
+      <c r="E193" s="28">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4484,8 +4475,8 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>109</v>
+      <c r="I2" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4634,21 +4625,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+    <row r="9" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>38092</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -4808,7 +4799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42489</v>
       </c>
@@ -4834,53 +4825,53 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>42499</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>42495</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>42501</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -4934,29 +4925,29 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+    <row r="24" spans="1:8" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
         <v>42558</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="24">
         <v>0.36805555555555558</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5041,7 +5032,7 @@
       <c r="C29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="16" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5171,7 +5162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>43576</v>
       </c>
@@ -5260,7 +5251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>43653</v>
       </c>
@@ -5377,7 +5368,7 @@
       <c r="C47" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="25" t="s">
         <v>103</v>
       </c>
       <c r="E47" s="13">
@@ -5471,7 +5462,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>44316</v>
       </c>
@@ -5534,7 +5525,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>44358</v>
       </c>
@@ -5578,7 +5569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>44629</v>
       </c>
@@ -5589,7 +5580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>44634</v>
       </c>
@@ -5648,7 +5639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>44684</v>
       </c>
@@ -5718,33 +5709,33 @@
         <v>57</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E67" s="29">
+        <v>112</v>
+      </c>
+      <c r="E67" s="26">
         <v>0.40972222222222221</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>45037</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>105</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -5758,36 +5749,36 @@
         <v>45</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E69" s="29">
+        <v>111</v>
+      </c>
+      <c r="E69" s="26">
         <v>0.56111111111111112</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H69" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>45100</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D70" s="30" t="s">
-        <v>117</v>
+      <c r="D70" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
